--- a/target/test-classes/com/born/xls/Login functionality.xlsx
+++ b/target/test-classes/com/born/xls/Login functionality.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="79">
   <si>
     <t>TCID</t>
   </si>
@@ -248,13 +248,20 @@
   </si>
   <si>
     <t>RandomString</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +376,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -398,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -425,6 +442,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -738,10 +756,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.7265625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7265625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="64.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="10.7265625" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -792,15 +810,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1796875" style="2" collapsed="1"/>
-    <col min="3" max="3" width="47.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7265625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.54296875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="14.36328125" collapsed="true"/>
+    <col min="2" max="2" style="2" width="9.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="47.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="26.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="36.26953125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="24.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="20.54296875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -825,6 +843,9 @@
       <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="H1" t="s" s="14">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -844,6 +865,9 @@
         <v>7</v>
       </c>
       <c r="G2" s="6"/>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -863,6 +887,9 @@
         <v>9</v>
       </c>
       <c r="G3" s="6"/>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -882,6 +909,9 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -901,6 +931,9 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -920,6 +953,9 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -939,6 +975,9 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -958,6 +997,9 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -979,6 +1021,9 @@
         <v>29</v>
       </c>
       <c r="G9" s="6"/>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -1000,6 +1045,9 @@
         <v>29</v>
       </c>
       <c r="G10" s="6"/>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -1019,6 +1067,9 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -1038,6 +1089,9 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -1057,6 +1111,9 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
@@ -1074,6 +1131,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
@@ -1102,6 +1162,9 @@
         <v>7</v>
       </c>
       <c r="G16" s="6"/>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
@@ -1121,6 +1184,9 @@
         <v>9</v>
       </c>
       <c r="G17" s="6"/>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
@@ -1140,6 +1206,9 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
@@ -1161,6 +1230,9 @@
         <v>40</v>
       </c>
       <c r="G19" s="6"/>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1182,6 +1254,9 @@
         <v>29</v>
       </c>
       <c r="G20" s="6"/>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
@@ -1201,6 +1276,9 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
@@ -1220,6 +1298,9 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="6"/>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
@@ -1239,6 +1320,9 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
@@ -1258,6 +1342,9 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
@@ -1277,6 +1364,9 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
@@ -1294,6 +1384,9 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1311,9 +1404,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.5625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.4">
@@ -1334,7 +1427,9 @@
       <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,9 +1446,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1380,7 +1475,9 @@
       <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/target/test-classes/com/born/xls/Login functionality.xlsx
+++ b/target/test-classes/com/born/xls/Login functionality.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010" tabRatio="652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010" tabRatio="652" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>TCID</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Verify the user is bale to login succefully</t>
-  </si>
-  <si>
     <t>Verify the user can Register for an account successfully</t>
   </si>
   <si>
@@ -250,18 +247,14 @@
     <t>RandomString</t>
   </si>
   <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Verify the user is abale to login succefully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,16 +369,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -415,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -442,7 +425,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -750,16 +732,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="64.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="10.7265625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="23.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.7265625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7265625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -778,7 +760,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
@@ -789,7 +771,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>54</v>
@@ -802,23 +784,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="14.36328125" collapsed="true"/>
-    <col min="2" max="2" style="2" width="9.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="47.1796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="26.7265625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.26953125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.1796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="20.54296875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="14.36328125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="47.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7265625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.1796875" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="2" collapsed="1"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -843,9 +826,6 @@
       <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s" s="14">
-        <v>77</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -865,9 +845,6 @@
         <v>7</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -887,9 +864,6 @@
         <v>9</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -905,13 +879,10 @@
         <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -927,13 +898,10 @@
         <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -946,16 +914,13 @@
         <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -968,16 +933,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -990,16 +952,13 @@
         <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -1015,15 +974,12 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -1039,15 +995,12 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -1063,13 +1016,10 @@
         <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -1079,19 +1029,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -1101,19 +1048,16 @@
         <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
@@ -1123,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>53</v>
@@ -1131,9 +1075,6 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
@@ -1162,9 +1103,6 @@
         <v>7</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
@@ -1184,9 +1122,6 @@
         <v>9</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
@@ -1202,13 +1137,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
@@ -1224,15 +1156,12 @@
         <v>10</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1254,9 +1183,6 @@
         <v>29</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
@@ -1272,13 +1198,10 @@
         <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
@@ -1294,13 +1217,10 @@
         <v>51</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="6"/>
-      <c r="H22" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
@@ -1310,19 +1230,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
@@ -1338,13 +1255,10 @@
         <v>35</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
@@ -1360,13 +1274,10 @@
         <v>51</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
@@ -1384,9 +1295,6 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" t="s">
-        <v>78</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,9 +1312,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.5625" collapsed="true"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.4">
@@ -1427,9 +1335,7 @@
       <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="C2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1440,15 +1346,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.3984375" collapsed="true"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1467,7 +1373,7 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>38</v>
@@ -1475,9 +1381,7 @@
       <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/target/test-classes/com/born/xls/Login functionality.xlsx
+++ b/target/test-classes/com/born/xls/Login functionality.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010" tabRatio="652" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
